--- a/Code/Results/Cases/Case_8_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.02887775458569</v>
+        <v>11.06074562057961</v>
       </c>
       <c r="C2">
-        <v>9.795198735480833</v>
+        <v>11.18031576177008</v>
       </c>
       <c r="D2">
-        <v>6.349982548088895</v>
+        <v>5.280104438444368</v>
       </c>
       <c r="E2">
-        <v>14.48656842772133</v>
+        <v>14.78805639446816</v>
       </c>
       <c r="F2">
-        <v>40.73761869511581</v>
+        <v>33.71345654548325</v>
       </c>
       <c r="G2">
-        <v>2.127207449612543</v>
+        <v>6.83028142793767</v>
       </c>
       <c r="H2">
-        <v>2.280640476774034</v>
+        <v>1.969132893322196</v>
       </c>
       <c r="I2">
-        <v>3.688629044789907</v>
+        <v>3.160209988265925</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>29.31517498151347</v>
+        <v>23.5413927317019</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>18.81310448565909</v>
       </c>
       <c r="M2">
-        <v>11.09566875568308</v>
+        <v>16.28993408143651</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.20147191181359</v>
+        <v>11.59264719048356</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.40870698145984</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.31113582516433</v>
+        <v>10.40481828078027</v>
       </c>
       <c r="C3">
-        <v>9.102378890412332</v>
+        <v>10.38572855212276</v>
       </c>
       <c r="D3">
-        <v>6.258149481980775</v>
+        <v>5.221671287878432</v>
       </c>
       <c r="E3">
-        <v>13.50423127619463</v>
+        <v>13.86915746321258</v>
       </c>
       <c r="F3">
-        <v>38.95630137014083</v>
+        <v>32.44940751765685</v>
       </c>
       <c r="G3">
-        <v>2.133270415017583</v>
+        <v>7.547193867948604</v>
       </c>
       <c r="H3">
-        <v>2.545465430045585</v>
+        <v>2.197897482196637</v>
       </c>
       <c r="I3">
-        <v>3.931051777274249</v>
+        <v>3.3390789779789</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>28.27842341444856</v>
+        <v>22.95778101716691</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>18.55735753315633</v>
       </c>
       <c r="M3">
-        <v>10.39223060257994</v>
+        <v>15.67012246267366</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.36385290668405</v>
+        <v>10.90668998931679</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.5702212984695</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.844290821229226</v>
+        <v>9.978830341289909</v>
       </c>
       <c r="C4">
-        <v>8.65787534188453</v>
+        <v>9.872571839206511</v>
       </c>
       <c r="D4">
-        <v>6.197827378588201</v>
+        <v>5.182899995349495</v>
       </c>
       <c r="E4">
-        <v>12.8670180898968</v>
+        <v>13.27353156548023</v>
       </c>
       <c r="F4">
-        <v>37.81758076977843</v>
+        <v>31.63954006967634</v>
       </c>
       <c r="G4">
-        <v>2.137103609192974</v>
+        <v>8.001350285406877</v>
       </c>
       <c r="H4">
-        <v>2.713408325939104</v>
+        <v>2.343257335885583</v>
       </c>
       <c r="I4">
-        <v>4.085148502272156</v>
+        <v>3.453471803844183</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>27.61620471529583</v>
+        <v>22.58292632893865</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>18.38522619084249</v>
       </c>
       <c r="M4">
-        <v>9.937139452372241</v>
+        <v>15.28774286988792</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.82403084171275</v>
+        <v>10.4633329075889</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.02947610279684</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.645533029933622</v>
+        <v>9.797847537763134</v>
       </c>
       <c r="C5">
-        <v>8.479472813929048</v>
+        <v>9.663317272622418</v>
       </c>
       <c r="D5">
-        <v>6.167979387485173</v>
+        <v>5.164496021245692</v>
       </c>
       <c r="E5">
-        <v>12.59763010748838</v>
+        <v>13.02201896962519</v>
       </c>
       <c r="F5">
-        <v>37.30746161197415</v>
+        <v>31.27288340112238</v>
       </c>
       <c r="G5">
-        <v>2.138708838428122</v>
+        <v>8.1915906739461</v>
       </c>
       <c r="H5">
-        <v>2.78359865737945</v>
+        <v>2.40401386336183</v>
       </c>
       <c r="I5">
-        <v>4.152093631542271</v>
+        <v>3.504482825685591</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>27.31224251174041</v>
+        <v>22.40461776207627</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>18.29406567061939</v>
       </c>
       <c r="M5">
-        <v>9.746803142479006</v>
+        <v>15.11655853270997</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.5981915421326</v>
+        <v>10.27791702944702</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.80309619398847</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.609793425425089</v>
+        <v>9.765526256229929</v>
       </c>
       <c r="C6">
-        <v>8.458815926338845</v>
+        <v>9.63582969984116</v>
       </c>
       <c r="D6">
-        <v>6.157746824779046</v>
+        <v>5.159127768954046</v>
       </c>
       <c r="E6">
-        <v>12.55103937640904</v>
+        <v>12.97868274996464</v>
       </c>
       <c r="F6">
-        <v>37.17903098784068</v>
+        <v>31.17675571388705</v>
       </c>
       <c r="G6">
-        <v>2.138994969980522</v>
+        <v>8.22533019503134</v>
       </c>
       <c r="H6">
-        <v>2.795801065478196</v>
+        <v>2.414507123785867</v>
       </c>
       <c r="I6">
-        <v>4.166854149442827</v>
+        <v>3.517171270138891</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>27.22727609276029</v>
+        <v>22.34848962846414</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>18.25769430995929</v>
       </c>
       <c r="M6">
-        <v>9.716015315814371</v>
+        <v>15.06939865577036</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.56090402075905</v>
+        <v>10.24776249397477</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.76561176548972</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.835393164652997</v>
+        <v>9.978662703084638</v>
       </c>
       <c r="C7">
-        <v>8.680093126145779</v>
+        <v>9.842094246182906</v>
       </c>
       <c r="D7">
-        <v>6.183250094737757</v>
+        <v>5.166242734310438</v>
       </c>
       <c r="E7">
-        <v>12.859834204666</v>
+        <v>13.26860879434976</v>
       </c>
       <c r="F7">
-        <v>37.69484558762037</v>
+        <v>31.37288545272106</v>
       </c>
       <c r="G7">
-        <v>2.137173434421707</v>
+        <v>8.060558794941462</v>
       </c>
       <c r="H7">
-        <v>2.71560487023721</v>
+        <v>2.346735278944351</v>
       </c>
       <c r="I7">
-        <v>4.095537940146725</v>
+        <v>3.467921645954083</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>27.52000788265359</v>
+        <v>22.40091741563547</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>18.24167919989447</v>
       </c>
       <c r="M7">
-        <v>9.937710177960193</v>
+        <v>15.15591653286292</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.82258956118679</v>
+        <v>10.45397668871907</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.02329971200833</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.77911925503219</v>
+        <v>10.85608181011207</v>
       </c>
       <c r="C8">
-        <v>9.589985664636629</v>
+        <v>10.78937158067421</v>
       </c>
       <c r="D8">
-        <v>6.300779189288483</v>
+        <v>5.222843180281802</v>
       </c>
       <c r="E8">
-        <v>14.15040851922244</v>
+        <v>14.4783968226053</v>
       </c>
       <c r="F8">
-        <v>39.98761174040762</v>
+        <v>32.63807517824002</v>
       </c>
       <c r="G8">
-        <v>2.12933753081067</v>
+        <v>7.323967457552408</v>
       </c>
       <c r="H8">
-        <v>2.372476855062666</v>
+        <v>2.053782142750648</v>
       </c>
       <c r="I8">
-        <v>3.78339605545078</v>
+        <v>3.243915642787345</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>28.84631950186832</v>
+        <v>22.90800587081333</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>18.39095756847303</v>
       </c>
       <c r="M8">
-        <v>10.86169795146794</v>
+        <v>15.75388817843492</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.91990710407338</v>
+        <v>11.33453863355058</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.11273611722702</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.43381399427133</v>
+        <v>12.37255042522585</v>
       </c>
       <c r="C9">
-        <v>11.18591016040955</v>
+        <v>12.59174866485341</v>
       </c>
       <c r="D9">
-        <v>6.524444297736792</v>
+        <v>5.355894941371069</v>
       </c>
       <c r="E9">
-        <v>16.41981288334975</v>
+        <v>16.60109954237511</v>
       </c>
       <c r="F9">
-        <v>44.30264401686439</v>
+        <v>35.61538882790594</v>
       </c>
       <c r="G9">
-        <v>2.114728778418536</v>
+        <v>5.697000973262763</v>
       </c>
       <c r="H9">
-        <v>1.738398648785937</v>
+        <v>1.610517435431646</v>
       </c>
       <c r="I9">
-        <v>3.195911596859525</v>
+        <v>2.812248098535712</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>31.38936582631807</v>
+        <v>24.28518140748645</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>18.97033451174016</v>
       </c>
       <c r="M9">
-        <v>12.48574858055522</v>
+        <v>17.27603219823552</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.86462675810668</v>
+        <v>12.91459290914814</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.05483941500589</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.56504326507019</v>
+        <v>13.45273789578797</v>
       </c>
       <c r="C10">
-        <v>12.23268730926662</v>
+        <v>13.52682622156861</v>
       </c>
       <c r="D10">
-        <v>6.598141455313527</v>
+        <v>5.389707463538214</v>
       </c>
       <c r="E10">
-        <v>17.3615319662035</v>
+        <v>17.45815714272299</v>
       </c>
       <c r="F10">
-        <v>46.69352965294045</v>
+        <v>36.41515536654514</v>
       </c>
       <c r="G10">
-        <v>2.10476593413924</v>
+        <v>5.713792818919133</v>
       </c>
       <c r="H10">
-        <v>1.796825614303739</v>
+        <v>1.950067011502344</v>
       </c>
       <c r="I10">
-        <v>2.805553171410893</v>
+        <v>2.545103886348146</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>32.71400960594222</v>
+        <v>24.38822592129221</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>18.71711219920257</v>
       </c>
       <c r="M10">
-        <v>13.58075825089261</v>
+        <v>17.72390679854599</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.8971089894845</v>
+        <v>13.93295123634535</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.05952747746058</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.40424941378931</v>
+        <v>14.38260339641509</v>
       </c>
       <c r="C11">
-        <v>12.32275933345397</v>
+        <v>13.029763975183</v>
       </c>
       <c r="D11">
-        <v>6.132172968114129</v>
+        <v>5.424840871779558</v>
       </c>
       <c r="E11">
-        <v>12.99731153904657</v>
+        <v>13.14910787551294</v>
       </c>
       <c r="F11">
-        <v>43.42629982656145</v>
+        <v>32.16325642967532</v>
       </c>
       <c r="G11">
-        <v>2.102694873751089</v>
+        <v>8.889482016344051</v>
       </c>
       <c r="H11">
-        <v>2.700157594918679</v>
+        <v>2.784590366025921</v>
       </c>
       <c r="I11">
-        <v>2.74659786069766</v>
+        <v>2.529639983603978</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>30.07011439216965</v>
+        <v>21.32247709580635</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>16.34129966680061</v>
       </c>
       <c r="M11">
-        <v>14.15216187407833</v>
+        <v>15.4988205284336</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.0321371193465</v>
+        <v>14.38273036342261</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.13363820367927</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.90037715056737</v>
+        <v>14.94476031640649</v>
       </c>
       <c r="C12">
-        <v>12.15823296638091</v>
+        <v>12.5267609884843</v>
       </c>
       <c r="D12">
-        <v>5.861027009424043</v>
+        <v>5.627836977667075</v>
       </c>
       <c r="E12">
-        <v>9.270303757939633</v>
+        <v>9.505011324290496</v>
       </c>
       <c r="F12">
-        <v>40.30533476355015</v>
+        <v>29.02232014008824</v>
       </c>
       <c r="G12">
-        <v>2.102681372222584</v>
+        <v>10.63056977473744</v>
       </c>
       <c r="H12">
-        <v>4.049816861202711</v>
+        <v>4.055206000399801</v>
       </c>
       <c r="I12">
-        <v>2.748440349409841</v>
+        <v>2.532666659555414</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>27.70053383122554</v>
+        <v>19.21066335119855</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.78809741368065</v>
       </c>
       <c r="M12">
-        <v>14.41460509349832</v>
+        <v>13.87945446166742</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.23331577752381</v>
+        <v>14.5833654617991</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.30238935696525</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.17093608461024</v>
+        <v>15.2485630000238</v>
       </c>
       <c r="C13">
-        <v>11.80947227190471</v>
+        <v>12.08060743572663</v>
       </c>
       <c r="D13">
-        <v>5.714191067096806</v>
+        <v>5.829135769506591</v>
       </c>
       <c r="E13">
-        <v>5.996246223132901</v>
+        <v>6.384936285102774</v>
       </c>
       <c r="F13">
-        <v>36.88591751038108</v>
+        <v>26.68197640693226</v>
       </c>
       <c r="G13">
-        <v>2.104314952297978</v>
+        <v>10.30340911511728</v>
       </c>
       <c r="H13">
-        <v>5.522726347766119</v>
+        <v>5.480148654936201</v>
       </c>
       <c r="I13">
-        <v>2.813741413065412</v>
+        <v>2.568715781559443</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.24314881995771</v>
+        <v>17.75647361926141</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.77725477073906</v>
       </c>
       <c r="M13">
-        <v>14.4671877877352</v>
+        <v>12.69202586104612</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.39271871466193</v>
+        <v>14.63062226266925</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.3989517436806</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.26192558824798</v>
+        <v>15.34761651016575</v>
       </c>
       <c r="C14">
-        <v>11.48308483539408</v>
+        <v>11.78733921310121</v>
       </c>
       <c r="D14">
-        <v>5.687845151938687</v>
+        <v>5.943640845678886</v>
       </c>
       <c r="E14">
-        <v>4.544298049985654</v>
+        <v>5.079309714188527</v>
       </c>
       <c r="F14">
-        <v>34.30170770807349</v>
+        <v>25.33880423224236</v>
       </c>
       <c r="G14">
-        <v>2.106180294654089</v>
+        <v>9.190261722035766</v>
       </c>
       <c r="H14">
-        <v>6.553898332985053</v>
+        <v>6.511157748941558</v>
       </c>
       <c r="I14">
-        <v>2.890117434193298</v>
+        <v>2.613183289948982</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.46190116977926</v>
+        <v>16.98638566127131</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.26847023848097</v>
       </c>
       <c r="M14">
-        <v>14.41172611211704</v>
+        <v>12.02511335390612</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.15162109947219</v>
+        <v>14.59509188658163</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.14827205353284</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.23346390222318</v>
+        <v>15.3152107843967</v>
       </c>
       <c r="C15">
-        <v>11.36943997816636</v>
+        <v>11.72471508332294</v>
       </c>
       <c r="D15">
-        <v>5.691388039246094</v>
+        <v>5.948726261955408</v>
       </c>
       <c r="E15">
-        <v>4.40403620714461</v>
+        <v>4.972053977046468</v>
       </c>
       <c r="F15">
-        <v>33.56763359458423</v>
+        <v>25.1175985144864</v>
       </c>
       <c r="G15">
-        <v>2.107036462050834</v>
+        <v>8.566881138373846</v>
       </c>
       <c r="H15">
-        <v>6.793876282473166</v>
+        <v>6.749695485511811</v>
       </c>
       <c r="I15">
-        <v>2.928289588510214</v>
+        <v>2.638307487949488</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.97872000457998</v>
+        <v>16.8796114554686</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.2087334587587</v>
       </c>
       <c r="M15">
-        <v>14.35347767791721</v>
+        <v>11.91587884003811</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.832461661724317</v>
+        <v>14.55239289588049</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.828427623121604</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.7399555798033</v>
+        <v>14.7749674887802</v>
       </c>
       <c r="C16">
-        <v>10.99184974543262</v>
+        <v>11.71729707172946</v>
       </c>
       <c r="D16">
-        <v>5.68084787654599</v>
+        <v>5.713932512840986</v>
       </c>
       <c r="E16">
-        <v>4.253672985147724</v>
+        <v>4.934973959348123</v>
       </c>
       <c r="F16">
-        <v>33.00017774631534</v>
+        <v>26.24103501830274</v>
       </c>
       <c r="G16">
-        <v>2.110940995505718</v>
+        <v>6.073900402436458</v>
       </c>
       <c r="H16">
-        <v>6.60214579248047</v>
+        <v>6.542779833518613</v>
       </c>
       <c r="I16">
-        <v>3.085267872451764</v>
+        <v>2.736336311911305</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.77568141574326</v>
+        <v>17.71162901975649</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.87461836369237</v>
       </c>
       <c r="M16">
-        <v>13.9037941409943</v>
+        <v>12.47126283526421</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.641098451086034</v>
+        <v>14.19735229538793</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.655624379796606</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.29985052397952</v>
+        <v>14.30657221483724</v>
       </c>
       <c r="C17">
-        <v>10.88073189201134</v>
+        <v>11.82332109592045</v>
       </c>
       <c r="D17">
-        <v>5.673468784163373</v>
+        <v>5.530386647887576</v>
       </c>
       <c r="E17">
-        <v>4.66496410471315</v>
+        <v>5.332992827499665</v>
       </c>
       <c r="F17">
-        <v>33.97942598108651</v>
+        <v>27.66141780915036</v>
       </c>
       <c r="G17">
-        <v>2.112977943505076</v>
+        <v>5.477415207245576</v>
       </c>
       <c r="H17">
-        <v>5.878903861345954</v>
+        <v>5.804354706584284</v>
       </c>
       <c r="I17">
-        <v>3.167057287433282</v>
+        <v>2.790759484500587</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.57489866897435</v>
+        <v>18.68980542871162</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.63136357388974</v>
       </c>
       <c r="M17">
-        <v>13.58126554642875</v>
+        <v>13.17685632603023</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.16413853770264</v>
+        <v>13.92718386399593</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.19932558282782</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.86912584109443</v>
+        <v>13.84501620718761</v>
       </c>
       <c r="C18">
-        <v>10.97721583578923</v>
+        <v>12.10632105329639</v>
       </c>
       <c r="D18">
-        <v>5.740394640111563</v>
+        <v>5.374424148279125</v>
       </c>
       <c r="E18">
-        <v>6.866283090154718</v>
+        <v>7.33483621924746</v>
       </c>
       <c r="F18">
-        <v>36.49998635356751</v>
+        <v>29.86371703044895</v>
       </c>
       <c r="G18">
-        <v>2.113458701917405</v>
+        <v>5.321336885697685</v>
       </c>
       <c r="H18">
-        <v>4.635003955339342</v>
+        <v>4.54003455543649</v>
       </c>
       <c r="I18">
-        <v>3.177309846403197</v>
+        <v>2.794157397077883</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>25.42872236153907</v>
+        <v>20.15829064489711</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>15.73592006741359</v>
       </c>
       <c r="M18">
-        <v>13.33751608335315</v>
+        <v>14.28704983537952</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.4437668266613</v>
+        <v>13.71966432109318</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.60024704819731</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.48048621071776</v>
+        <v>13.42072121365762</v>
       </c>
       <c r="C19">
-        <v>11.26994184865537</v>
+        <v>12.5716125685461</v>
       </c>
       <c r="D19">
-        <v>5.955740400048853</v>
+        <v>5.307165258685026</v>
       </c>
       <c r="E19">
-        <v>10.67395687731711</v>
+        <v>10.95766079236393</v>
       </c>
       <c r="F19">
-        <v>39.8894654067041</v>
+        <v>32.5036249839468</v>
       </c>
       <c r="G19">
-        <v>2.11251265019436</v>
+        <v>5.185363966998312</v>
       </c>
       <c r="H19">
-        <v>3.143043811278873</v>
+        <v>3.015747396866874</v>
       </c>
       <c r="I19">
-        <v>3.141427827644597</v>
+        <v>2.774130122568272</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>27.89176516830402</v>
+        <v>21.91285862482025</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>17.04020319572033</v>
       </c>
       <c r="M19">
-        <v>13.1882103041142</v>
+        <v>15.63566733526038</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.3944114711027</v>
+        <v>13.59469105412216</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.56811763813372</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.2630501431345</v>
+        <v>13.14566290447795</v>
       </c>
       <c r="C20">
-        <v>12.01821333350617</v>
+        <v>13.46322242923251</v>
       </c>
       <c r="D20">
-        <v>6.537163649055389</v>
+        <v>5.388971878696336</v>
       </c>
       <c r="E20">
-        <v>17.08382344354878</v>
+        <v>17.20166194827067</v>
       </c>
       <c r="F20">
-        <v>45.7576168743981</v>
+        <v>36.45469346508563</v>
       </c>
       <c r="G20">
-        <v>2.107502779871634</v>
+        <v>5.013841071366409</v>
       </c>
       <c r="H20">
-        <v>1.684609155844448</v>
+        <v>1.862783325787724</v>
       </c>
       <c r="I20">
-        <v>2.940994214988923</v>
+        <v>2.645491090631674</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>32.11121820334085</v>
+        <v>24.49802286614274</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>18.88329971711776</v>
       </c>
       <c r="M20">
-        <v>13.3083906875677</v>
+        <v>17.71159564195581</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.62352024509278</v>
+        <v>13.70675379797543</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.80565051145466</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.03231507969006</v>
+        <v>13.97883532374778</v>
       </c>
       <c r="C21">
-        <v>12.85114944059153</v>
+        <v>13.57710439492593</v>
       </c>
       <c r="D21">
-        <v>6.696554267811224</v>
+        <v>5.38081395326245</v>
       </c>
       <c r="E21">
-        <v>18.64205952493073</v>
+        <v>18.70485913807311</v>
       </c>
       <c r="F21">
-        <v>48.34511945956594</v>
+        <v>35.09238278856019</v>
       </c>
       <c r="G21">
-        <v>2.099506323203281</v>
+        <v>10.29984229791375</v>
       </c>
       <c r="H21">
-        <v>2.02891789344782</v>
+        <v>2.12523418981058</v>
       </c>
       <c r="I21">
-        <v>2.625439254025462</v>
+        <v>2.567789428056625</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>33.70715549965912</v>
+        <v>23.28299621444631</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>17.75174367602478</v>
       </c>
       <c r="M21">
-        <v>14.09616576490226</v>
+        <v>17.04999455807906</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.79660119719237</v>
+        <v>14.30205403102456</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.89335769306516</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.54081292839206</v>
+        <v>14.53895170182647</v>
       </c>
       <c r="C22">
-        <v>13.33528829045791</v>
+        <v>13.56360986413605</v>
       </c>
       <c r="D22">
-        <v>6.780884390831267</v>
+        <v>5.432263061591225</v>
       </c>
       <c r="E22">
-        <v>19.34353977392862</v>
+        <v>19.37963693065085</v>
       </c>
       <c r="F22">
-        <v>49.85343356706144</v>
+        <v>33.95989935171244</v>
       </c>
       <c r="G22">
-        <v>2.094436836576257</v>
+        <v>15.01860338400155</v>
       </c>
       <c r="H22">
-        <v>2.239779485118875</v>
+        <v>2.284072641408072</v>
       </c>
       <c r="I22">
-        <v>2.585556274924921</v>
+        <v>2.671056574693237</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>34.6318428661078</v>
+        <v>22.34044921777086</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>16.92512064164339</v>
       </c>
       <c r="M22">
-        <v>14.59464166887545</v>
+        <v>16.49118750892585</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.3990937276986</v>
+        <v>14.67093283568595</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.43641292793744</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.27694971819521</v>
+        <v>14.23063600680013</v>
       </c>
       <c r="C23">
-        <v>13.05819003530706</v>
+        <v>13.64342758262586</v>
       </c>
       <c r="D23">
-        <v>6.75129809020482</v>
+        <v>5.397325045444628</v>
       </c>
       <c r="E23">
-        <v>18.97507562884181</v>
+        <v>19.02026381880398</v>
       </c>
       <c r="F23">
-        <v>49.16075330601905</v>
+        <v>34.99925306256225</v>
       </c>
       <c r="G23">
-        <v>2.097085647026089</v>
+        <v>11.68237419042161</v>
       </c>
       <c r="H23">
-        <v>2.128845586211793</v>
+        <v>2.203187978740921</v>
       </c>
       <c r="I23">
-        <v>2.512515321240799</v>
+        <v>2.614025256406758</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>34.23043377292635</v>
+        <v>23.14071209301255</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>17.57893682368093</v>
       </c>
       <c r="M23">
-        <v>14.32784613677069</v>
+        <v>17.02317237045999</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.07836772979189</v>
+        <v>14.49134197871932</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.15633964961244</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.22572485124179</v>
+        <v>13.10224390137242</v>
       </c>
       <c r="C24">
-        <v>12.00872615364536</v>
+        <v>13.48140907146329</v>
       </c>
       <c r="D24">
-        <v>6.608824202569674</v>
+        <v>5.407999726048685</v>
       </c>
       <c r="E24">
-        <v>17.51909112668276</v>
+        <v>17.62931614349783</v>
       </c>
       <c r="F24">
-        <v>46.27840887273819</v>
+        <v>36.88500221163089</v>
       </c>
       <c r="G24">
-        <v>2.10732586649871</v>
+        <v>4.968848145702811</v>
       </c>
       <c r="H24">
-        <v>1.699930248475883</v>
+        <v>1.877461651481939</v>
       </c>
       <c r="I24">
-        <v>2.916123241587483</v>
+        <v>2.618294827747119</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>32.51836325018255</v>
+        <v>24.81368699160115</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>19.12166533095604</v>
       </c>
       <c r="M24">
-        <v>13.28253111784704</v>
+        <v>17.94959277490954</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.81958104781191</v>
+        <v>13.68455065378574</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.00415560429265</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.99840694728382</v>
+        <v>11.96531114470556</v>
       </c>
       <c r="C25">
-        <v>10.8060645546794</v>
+        <v>12.21251108521792</v>
       </c>
       <c r="D25">
-        <v>6.443096192157697</v>
+        <v>5.325389180743215</v>
       </c>
       <c r="E25">
-        <v>15.82836025766179</v>
+        <v>16.04737611468244</v>
       </c>
       <c r="F25">
-        <v>42.99275087648724</v>
+        <v>34.90479971279142</v>
       </c>
       <c r="G25">
-        <v>2.118677983046903</v>
+        <v>5.98288206832128</v>
       </c>
       <c r="H25">
-        <v>1.907888554556558</v>
+        <v>1.651849849259321</v>
       </c>
       <c r="I25">
-        <v>3.368532028088114</v>
+        <v>2.942521221276846</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>30.57510317132127</v>
+        <v>23.95246247491097</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>18.84516782088355</v>
       </c>
       <c r="M25">
-        <v>12.07040562424379</v>
+        <v>16.88823053665724</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.3629659401315</v>
+        <v>12.52185556938348</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>15.55955807744697</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
